--- a/Doc/申诉导入模板.xlsx
+++ b/Doc/申诉导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>经销商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,10 +27,6 @@
   </si>
   <si>
     <t>得分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>失分说明</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -373,20 +369,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="19.75" customWidth="1"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="4" max="4" width="45.375" customWidth="1"/>
+    <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -395,9 +390,6 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/申诉导入模板.xlsx
+++ b/Doc/申诉导入模板.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>经销商代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -27,6 +27,18 @@
   </si>
   <si>
     <t>得分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EAQD10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>H3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -390,6 +402,28 @@
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/申诉导入模板.xlsx
+++ b/Doc/申诉导入模板.xlsx
@@ -34,11 +34,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>H1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>H3</t>
+    <t>B2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>E2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -384,7 +384,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
